--- a/data/trans_camb/P25A_12_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_12_R2-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,29</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>7,83</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>-1,91</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,34</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-3,3</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,93</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1,89</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 8,1</t>
+          <t>-11,63; 6,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 7,58</t>
+          <t>-9,23; 11,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 4,02</t>
+          <t>-6,17; 21,91</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 2,32</t>
+          <t>-14,71; 8,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,03</t>
+          <t>-18,38; 6,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 2,96</t>
+          <t>-17,28; 8,07</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-10,01; 5,62</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-9,47; 5,55</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-7,18; 10,94</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>-34,92%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>20,43%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>138,22%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-40,84%</t>
+          <t>-17,28%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>-37,8%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-12,87%</t>
+          <t>-29,91%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,82%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-19,13%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-77,78; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-76,38; —</t>
+          <t>-86,49; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,47; 90,87</t>
+          <t>-54,8; 1324,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-81,84; 64,57</t>
+          <t>-85,18; 221,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-56,37; 116,91</t>
+          <t>-98,48; 223,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-65,56; 80,3</t>
+          <t>-93,21; 213,95</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-78,05; 129,95</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-73,86; 141,68</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-57,78; 227,64</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-1,11</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>-0,27</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>0,03</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,17</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,24</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-0,08</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 3,84</t>
+          <t>-3,35; 4,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,61</t>
+          <t>-4,73; 2,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,56; 2,65</t>
+          <t>-4,56; 2,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,13; 5,42</t>
+          <t>-6,22; 5,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,52</t>
+          <t>-5,79; 6,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 3,11</t>
+          <t>-3,53; 9,26</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 3,68</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-4,15; 2,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 4,51</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>43,64%</t>
+          <t>11,15%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>-35,24%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-15,01%</t>
+          <t>-35,11%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,89%</t>
+          <t>-2,9%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,19%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,24%</t>
+          <t>32,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-1,21%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-12,17%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-54,16; 351,89</t>
+          <t>-72,32; 483,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,27; 241,54</t>
+          <t>-87,55; 345,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,44; 44,47</t>
+          <t>-87,29; 311,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 83,4</t>
+          <t>-51,59; 97,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 59,71</t>
+          <t>-48,09; 104,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-43,73; 80,16</t>
+          <t>-28,35; 146,3</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-49,69; 85,18</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-49,34; 61,43</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-39,74; 100,69</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>-2,26</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>5,37</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,81</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>3,05</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,06</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>4,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,32</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,17</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 2,19</t>
+          <t>-7,4; 1,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 3,66</t>
+          <t>-4,82; 4,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,24; 9,22</t>
+          <t>-3,77; 7,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,89</t>
+          <t>1,4; 10,83</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 4,75</t>
+          <t>-0,96; 7,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,72</t>
+          <t>1,35; 11,04</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 6,02</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-1,48; 5,17</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0,85; 8,37</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,67%</t>
+          <t>-55,29%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>159,96%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>123,23%</t>
+          <t>213,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>69,03%</t>
+          <t>111,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>64,61%</t>
+          <t>222,17%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>66,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>51,39%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>124,8%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-87,27; 194,8</t>
+          <t>-100,0; 242,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 272,24</t>
+          <t>-81,08; 305,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,26; 460,02</t>
+          <t>-62,26; 378,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 391,61</t>
+          <t>12,75; 924,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 212,8</t>
+          <t>-39,59; 538,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-13,08; 205,01</t>
+          <t>7,78; 865,95</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-27,92; 314,74</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-35,9; 271,22</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>11,56; 423,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 2,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 3,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 3,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 2,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 2,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>19,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-40,96; 129,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 119,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-25,04; 69,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-30,12; 71,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,1; 60,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,34; 55,69</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-0,95</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-0,4</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1,42</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>2,04</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,37</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,0; 1,74</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 2,16</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,85; 4,79</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-1,76; 5,87</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 4,5</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 7,24</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 2,94</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,51</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-0,08; 4,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-24,51%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-10,37%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>36,74%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>29,93%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>10,99%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>49,57%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>10,53%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>43,29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-68,7; 81,12</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-65,94; 85,14</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-37,18; 198,64</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-20,72; 116,83</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-34,42; 92,25</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 141,63</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-30,12; 73,69</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-33,47; 61,46</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 117,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
